--- a/Code/1/results/result1_2_final_summary.xlsx
+++ b/Code/1/results/result1_2_final_summary.xlsx
@@ -1005,10 +1005,10 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>11.7</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>16.3636</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -1023,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>35</v>
+        <v>6.9364</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -1742,16 +1742,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
         <v>25</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -2177,13 +2177,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
         <v>35</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -2757,16 +2757,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
         <v>28</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2902,16 +2902,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
         <v>25</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -3050,13 +3050,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -3923,10 +3923,10 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
         <v>15</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -4207,16 +4207,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
         <v>27</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -4536,25 +4536,25 @@
         <v>0</v>
       </c>
       <c r="AE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK28" t="n">
         <v>15</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>0</v>
       </c>
       <c r="AL28" t="n">
         <v>0</v>
@@ -4660,7 +4660,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -4681,7 +4681,7 @@
         <v>0</v>
       </c>
       <c r="AE29" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AF29" t="n">
         <v>0</v>
@@ -5240,7 +5240,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -5270,7 +5270,7 @@
         <v>0</v>
       </c>
       <c r="AH33" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AI33" t="n">
         <v>0</v>
@@ -5406,25 +5406,25 @@
         <v>0</v>
       </c>
       <c r="AE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK34" t="n">
         <v>22</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>0</v>
       </c>
       <c r="AL34" t="n">
         <v>0</v>
@@ -8016,7 +8016,7 @@
         <v>0</v>
       </c>
       <c r="AE52" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AF52" t="n">
         <v>0</v>
@@ -8164,7 +8164,7 @@
         <v>0</v>
       </c>
       <c r="AF53" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AG53" t="n">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>0</v>
       </c>
       <c r="AE54" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AF54" t="n">
         <v>0</v>
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="AE55" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AF55" t="n">
         <v>0</v>
@@ -12635,7 +12635,7 @@
         <v>0</v>
       </c>
       <c r="X84" t="n">
-        <v>0</v>
+        <v>12.2813</v>
       </c>
       <c r="Y84" t="n">
         <v>0</v>
@@ -12647,7 +12647,7 @@
         <v>0</v>
       </c>
       <c r="AB84" t="n">
-        <v>0</v>
+        <v>1.0622</v>
       </c>
       <c r="AC84" t="n">
         <v>0</v>
@@ -12656,10 +12656,10 @@
         <v>0</v>
       </c>
       <c r="AE84" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AF84" t="n">
-        <v>0</v>
+        <v>0.3293</v>
       </c>
       <c r="AG84" t="n">
         <v>0</v>
@@ -12671,7 +12671,7 @@
         <v>0</v>
       </c>
       <c r="AJ84" t="n">
-        <v>0</v>
+        <v>0.3273</v>
       </c>
       <c r="AK84" t="n">
         <v>0</v>
@@ -12801,28 +12801,28 @@
         <v>0</v>
       </c>
       <c r="AE85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL85" t="n">
         <v>6</v>
-      </c>
-      <c r="AF85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL85" t="n">
-        <v>0</v>
       </c>
       <c r="AM85" t="n">
         <v>0</v>
@@ -12946,25 +12946,25 @@
         <v>0</v>
       </c>
       <c r="AE86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK86" t="n">
         <v>10</v>
-      </c>
-      <c r="AF86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK86" t="n">
-        <v>0</v>
       </c>
       <c r="AL86" t="n">
         <v>0</v>
@@ -13070,7 +13070,7 @@
         <v>0</v>
       </c>
       <c r="X87" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Y87" t="n">
         <v>0</v>
@@ -13091,7 +13091,7 @@
         <v>0</v>
       </c>
       <c r="AE87" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AF87" t="n">
         <v>0</v>
@@ -13100,7 +13100,7 @@
         <v>0</v>
       </c>
       <c r="AH87" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AI87" t="n">
         <v>0</v>
@@ -13381,25 +13381,25 @@
         <v>0</v>
       </c>
       <c r="AE89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK89" t="n">
         <v>20</v>
-      </c>
-      <c r="AF89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK89" t="n">
-        <v>0</v>
       </c>
       <c r="AL89" t="n">
         <v>0</v>
@@ -15825,7 +15825,7 @@
         <v>0</v>
       </c>
       <c r="X106" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="Y106" t="n">
         <v>0</v>
@@ -15985,7 +15985,7 @@
         <v>0</v>
       </c>
       <c r="AC107" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AD107" t="n">
         <v>0</v>
@@ -16115,7 +16115,7 @@
         <v>0</v>
       </c>
       <c r="X108" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="Y108" t="n">
         <v>0</v>
@@ -16260,7 +16260,7 @@
         <v>0</v>
       </c>
       <c r="X109" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="Y109" t="n">
         <v>0</v>
@@ -16775,7 +16775,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>16.3636</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -16790,7 +16790,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>55</v>
+        <v>38.6364</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -17352,7 +17352,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>11.7</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -17370,7 +17370,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>55</v>
+        <v>43.3</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -18234,16 +18234,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
         <v>20</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -19539,16 +19539,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
         <v>15</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -19974,16 +19974,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
         <v>18</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -20264,16 +20264,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
         <v>20</v>
-      </c>
-      <c r="S27" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" t="n">
-        <v>0</v>
-      </c>
-      <c r="U27" t="n">
-        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -20457,19 +20457,19 @@
         <v>0</v>
       </c>
       <c r="AH28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL28" t="n">
         <v>15</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>0</v>
       </c>
       <c r="AM28" t="n">
         <v>0</v>
@@ -20572,7 +20572,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -20602,10 +20602,10 @@
         <v>0</v>
       </c>
       <c r="AH29" t="n">
-        <v>0</v>
+        <v>9.676</v>
       </c>
       <c r="AI29" t="n">
-        <v>0</v>
+        <v>0.324</v>
       </c>
       <c r="AJ29" t="n">
         <v>0</v>
@@ -21173,25 +21173,25 @@
         <v>0</v>
       </c>
       <c r="AE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK33" t="n">
         <v>12</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>0</v>
       </c>
       <c r="AL33" t="n">
         <v>0</v>
@@ -21442,7 +21442,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>8.245900000000001</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -21457,7 +21457,7 @@
         <v>0</v>
       </c>
       <c r="AC35" t="n">
-        <v>0</v>
+        <v>1.0976</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -21466,25 +21466,25 @@
         <v>0</v>
       </c>
       <c r="AF35" t="n">
-        <v>0</v>
+        <v>0.3293</v>
       </c>
       <c r="AG35" t="n">
         <v>0</v>
       </c>
       <c r="AH35" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AI35" t="n">
         <v>0</v>
       </c>
       <c r="AJ35" t="n">
-        <v>0</v>
+        <v>0.3273</v>
       </c>
       <c r="AK35" t="n">
         <v>0</v>
       </c>
       <c r="AL35" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AM35" t="n">
         <v>0</v>
@@ -23919,7 +23919,7 @@
         <v>0</v>
       </c>
       <c r="AB52" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AC52" t="n">
         <v>0</v>
@@ -24082,7 +24082,7 @@
         <v>0</v>
       </c>
       <c r="AH53" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AI53" t="n">
         <v>0</v>
@@ -24227,7 +24227,7 @@
         <v>0</v>
       </c>
       <c r="AH54" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AI54" t="n">
         <v>0</v>
@@ -24372,7 +24372,7 @@
         <v>0</v>
       </c>
       <c r="AH55" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AI55" t="n">
         <v>0</v>
@@ -28432,16 +28432,16 @@
         <v>0</v>
       </c>
       <c r="AH83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK83" t="n">
         <v>10</v>
-      </c>
-      <c r="AI83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK83" t="n">
-        <v>0</v>
       </c>
       <c r="AL83" t="n">
         <v>0</v>
@@ -28577,16 +28577,16 @@
         <v>0</v>
       </c>
       <c r="AH84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK84" t="n">
         <v>14</v>
-      </c>
-      <c r="AI84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK84" t="n">
-        <v>0</v>
       </c>
       <c r="AL84" t="n">
         <v>0</v>
@@ -28722,16 +28722,16 @@
         <v>0</v>
       </c>
       <c r="AH85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK85" t="n">
         <v>6</v>
-      </c>
-      <c r="AI85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK85" t="n">
-        <v>0</v>
       </c>
       <c r="AL85" t="n">
         <v>0</v>
@@ -28822,7 +28822,7 @@
         <v>0</v>
       </c>
       <c r="S86" t="n">
-        <v>0</v>
+        <v>8.9024</v>
       </c>
       <c r="T86" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="AC86" t="n">
-        <v>0</v>
+        <v>1.0976</v>
       </c>
       <c r="AD86" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="AH86" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AI86" t="n">
         <v>0</v>
@@ -28967,7 +28967,7 @@
         <v>0</v>
       </c>
       <c r="S87" t="n">
-        <v>0</v>
+        <v>3.1776</v>
       </c>
       <c r="T87" t="n">
         <v>0</v>
@@ -28982,7 +28982,7 @@
         <v>0</v>
       </c>
       <c r="X87" t="n">
-        <v>0</v>
+        <v>8.171200000000001</v>
       </c>
       <c r="Y87" t="n">
         <v>0</v>
@@ -29003,7 +29003,7 @@
         <v>0</v>
       </c>
       <c r="AE87" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AF87" t="n">
         <v>0</v>
@@ -29015,10 +29015,10 @@
         <v>0</v>
       </c>
       <c r="AI87" t="n">
-        <v>0</v>
+        <v>0.324</v>
       </c>
       <c r="AJ87" t="n">
-        <v>0</v>
+        <v>0.3273</v>
       </c>
       <c r="AK87" t="n">
         <v>0</v>
@@ -29157,19 +29157,19 @@
         <v>0</v>
       </c>
       <c r="AH88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL88" t="n">
         <v>22</v>
-      </c>
-      <c r="AI88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL88" t="n">
-        <v>0</v>
       </c>
       <c r="AM88" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         <v>0</v>
       </c>
       <c r="X89" t="n">
-        <v>7.0875</v>
+        <v>0</v>
       </c>
       <c r="Y89" t="n">
         <v>0</v>
@@ -29302,7 +29302,7 @@
         <v>0</v>
       </c>
       <c r="AH89" t="n">
-        <v>12.9125</v>
+        <v>20</v>
       </c>
       <c r="AI89" t="n">
         <v>0</v>
@@ -31767,7 +31767,7 @@
         <v>0</v>
       </c>
       <c r="AH106" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AI106" t="n">
         <v>0</v>
@@ -31903,7 +31903,7 @@
         <v>0</v>
       </c>
       <c r="AE107" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AF107" t="n">
         <v>0</v>
@@ -32039,7 +32039,7 @@
         <v>0</v>
       </c>
       <c r="AB108" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AC108" t="n">
         <v>0</v>
@@ -32184,7 +32184,7 @@
         <v>0</v>
       </c>
       <c r="AB109" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AC109" t="n">
         <v>0</v>
@@ -32829,10 +32829,10 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>11.7</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>16.3636</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -32841,13 +32841,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>6.9364</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -33566,16 +33566,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
         <v>25</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -34581,16 +34581,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
         <v>28</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34726,16 +34726,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
         <v>25</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -34874,13 +34874,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -35747,10 +35747,10 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
         <v>15</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -36031,16 +36031,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
         <v>27</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -36505,28 +36505,28 @@
         <v>0</v>
       </c>
       <c r="AE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL29" t="n">
         <v>10</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>0</v>
       </c>
       <c r="AM29" t="n">
         <v>0</v>
@@ -36629,7 +36629,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>13.6707</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -36650,10 +36650,10 @@
         <v>0</v>
       </c>
       <c r="AE30" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AF30" t="n">
-        <v>0</v>
+        <v>0.3293</v>
       </c>
       <c r="AG30" t="n">
         <v>0</v>
@@ -36786,7 +36786,7 @@
         <v>0</v>
       </c>
       <c r="AB31" t="n">
-        <v>0</v>
+        <v>1.0622</v>
       </c>
       <c r="AC31" t="n">
         <v>0</v>
@@ -36795,7 +36795,7 @@
         <v>0</v>
       </c>
       <c r="AE31" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AF31" t="n">
         <v>0</v>
@@ -36816,7 +36816,7 @@
         <v>0</v>
       </c>
       <c r="AL31" t="n">
-        <v>0</v>
+        <v>4.9378</v>
       </c>
       <c r="AM31" t="n">
         <v>0</v>
@@ -36940,25 +36940,25 @@
         <v>0</v>
       </c>
       <c r="AE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK32" t="n">
         <v>10</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>0</v>
       </c>
       <c r="AL32" t="n">
         <v>0</v>
@@ -37064,7 +37064,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -37085,7 +37085,7 @@
         <v>0</v>
       </c>
       <c r="AE33" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AF33" t="n">
         <v>0</v>
@@ -37094,7 +37094,7 @@
         <v>0</v>
       </c>
       <c r="AH33" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AI33" t="n">
         <v>0</v>
@@ -37230,25 +37230,25 @@
         <v>0</v>
       </c>
       <c r="AE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK34" t="n">
         <v>22</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>0</v>
       </c>
       <c r="AL34" t="n">
         <v>0</v>
@@ -39840,7 +39840,7 @@
         <v>0</v>
       </c>
       <c r="AE52" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AF52" t="n">
         <v>0</v>
@@ -39964,7 +39964,7 @@
         <v>0</v>
       </c>
       <c r="X53" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="Y53" t="n">
         <v>0</v>
@@ -40130,7 +40130,7 @@
         <v>0</v>
       </c>
       <c r="AE54" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AF54" t="n">
         <v>0</v>
@@ -40275,7 +40275,7 @@
         <v>0</v>
       </c>
       <c r="AE55" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AF55" t="n">
         <v>0</v>
@@ -44190,25 +44190,25 @@
         <v>0</v>
       </c>
       <c r="AE82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK82" t="n">
         <v>15</v>
-      </c>
-      <c r="AF82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK82" t="n">
-        <v>0</v>
       </c>
       <c r="AL82" t="n">
         <v>0</v>
@@ -44894,7 +44894,7 @@
         <v>0</v>
       </c>
       <c r="X87" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Y87" t="n">
         <v>0</v>
@@ -44924,7 +44924,7 @@
         <v>0</v>
       </c>
       <c r="AH87" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AI87" t="n">
         <v>0</v>
@@ -45205,7 +45205,7 @@
         <v>0</v>
       </c>
       <c r="AE89" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AF89" t="n">
         <v>0</v>
@@ -45217,13 +45217,13 @@
         <v>0</v>
       </c>
       <c r="AI89" t="n">
-        <v>0</v>
+        <v>0.324</v>
       </c>
       <c r="AJ89" t="n">
         <v>0</v>
       </c>
       <c r="AK89" t="n">
-        <v>0</v>
+        <v>19.676</v>
       </c>
       <c r="AL89" t="n">
         <v>0</v>
@@ -47649,7 +47649,7 @@
         <v>0</v>
       </c>
       <c r="X106" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="Y106" t="n">
         <v>0</v>
@@ -47806,7 +47806,7 @@
         <v>0</v>
       </c>
       <c r="AB107" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AC107" t="n">
         <v>0</v>
@@ -47939,7 +47939,7 @@
         <v>0</v>
       </c>
       <c r="X108" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="Y108" t="n">
         <v>0</v>
@@ -48084,7 +48084,7 @@
         <v>0</v>
       </c>
       <c r="X109" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="Y109" t="n">
         <v>0</v>
@@ -48599,7 +48599,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -48614,7 +48614,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -49176,7 +49176,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>11.7</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -49194,7 +49194,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>55</v>
+        <v>43.3</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -50058,16 +50058,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
         <v>20</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -51363,16 +51363,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
         <v>15</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -51653,13 +51653,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>15</v>
+        <v>7.3684</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>7.6316</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -51798,16 +51798,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
         <v>18</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -52088,16 +52088,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
         <v>20</v>
-      </c>
-      <c r="S27" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" t="n">
-        <v>0</v>
-      </c>
-      <c r="U27" t="n">
-        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -52275,13 +52275,13 @@
         <v>0</v>
       </c>
       <c r="AF28" t="n">
-        <v>0</v>
+        <v>0.3293</v>
       </c>
       <c r="AG28" t="n">
         <v>0</v>
       </c>
       <c r="AH28" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AI28" t="n">
         <v>0</v>
@@ -52293,7 +52293,7 @@
         <v>0</v>
       </c>
       <c r="AL28" t="n">
-        <v>0</v>
+        <v>14.6707</v>
       </c>
       <c r="AM28" t="n">
         <v>0</v>
@@ -52426,10 +52426,10 @@
         <v>0</v>
       </c>
       <c r="AH29" t="n">
-        <v>10</v>
+        <v>9.676</v>
       </c>
       <c r="AI29" t="n">
-        <v>0</v>
+        <v>0.324</v>
       </c>
       <c r="AJ29" t="n">
         <v>0</v>
@@ -52716,16 +52716,16 @@
         <v>0</v>
       </c>
       <c r="AH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK31" t="n">
         <v>6</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>0</v>
       </c>
       <c r="AL31" t="n">
         <v>0</v>
@@ -52831,37 +52831,37 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH32" t="n">
         <v>10</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>0</v>
       </c>
       <c r="AI32" t="n">
         <v>0</v>
@@ -52997,25 +52997,25 @@
         <v>0</v>
       </c>
       <c r="AE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK33" t="n">
         <v>12</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>0</v>
       </c>
       <c r="AL33" t="n">
         <v>0</v>
@@ -53121,7 +53121,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>10.2459</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -53136,7 +53136,7 @@
         <v>0</v>
       </c>
       <c r="AC34" t="n">
-        <v>0</v>
+        <v>1.0976</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -53151,19 +53151,19 @@
         <v>0</v>
       </c>
       <c r="AH34" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AI34" t="n">
         <v>0</v>
       </c>
       <c r="AJ34" t="n">
-        <v>0</v>
+        <v>0.3273</v>
       </c>
       <c r="AK34" t="n">
         <v>0</v>
       </c>
       <c r="AL34" t="n">
-        <v>0</v>
+        <v>10.3293</v>
       </c>
       <c r="AM34" t="n">
         <v>0</v>
@@ -55743,7 +55743,7 @@
         <v>0</v>
       </c>
       <c r="AB52" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AC52" t="n">
         <v>0</v>
@@ -55906,7 +55906,7 @@
         <v>0</v>
       </c>
       <c r="AH53" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AI53" t="n">
         <v>0</v>
@@ -56051,7 +56051,7 @@
         <v>0</v>
       </c>
       <c r="AH54" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AI54" t="n">
         <v>0</v>
@@ -56196,7 +56196,7 @@
         <v>0</v>
       </c>
       <c r="AH55" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AI55" t="n">
         <v>0</v>
@@ -60256,16 +60256,16 @@
         <v>0</v>
       </c>
       <c r="AH83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK83" t="n">
         <v>10</v>
-      </c>
-      <c r="AI83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK83" t="n">
-        <v>0</v>
       </c>
       <c r="AL83" t="n">
         <v>0</v>
@@ -60401,16 +60401,16 @@
         <v>0</v>
       </c>
       <c r="AH84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK84" t="n">
         <v>14</v>
-      </c>
-      <c r="AI84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK84" t="n">
-        <v>0</v>
       </c>
       <c r="AL84" t="n">
         <v>0</v>
@@ -60516,37 +60516,37 @@
         <v>0</v>
       </c>
       <c r="X85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH85" t="n">
         <v>6</v>
-      </c>
-      <c r="Y85" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH85" t="n">
-        <v>0</v>
       </c>
       <c r="AI85" t="n">
         <v>0</v>
@@ -60661,7 +60661,7 @@
         <v>0</v>
       </c>
       <c r="X86" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Y86" t="n">
         <v>0</v>
@@ -60691,7 +60691,7 @@
         <v>0</v>
       </c>
       <c r="AH86" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AI86" t="n">
         <v>0</v>
@@ -60827,28 +60827,28 @@
         <v>0</v>
       </c>
       <c r="AE87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL87" t="n">
         <v>12</v>
-      </c>
-      <c r="AF87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL87" t="n">
-        <v>0</v>
       </c>
       <c r="AM87" t="n">
         <v>0</v>
@@ -60981,10 +60981,10 @@
         <v>0</v>
       </c>
       <c r="AH88" t="n">
-        <v>22</v>
+        <v>21.676</v>
       </c>
       <c r="AI88" t="n">
-        <v>0</v>
+        <v>0.324</v>
       </c>
       <c r="AJ88" t="n">
         <v>0</v>
@@ -61120,13 +61120,13 @@
         <v>0</v>
       </c>
       <c r="AF89" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AG89" t="n">
         <v>0</v>
       </c>
       <c r="AH89" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AI89" t="n">
         <v>0</v>
@@ -61138,7 +61138,7 @@
         <v>0</v>
       </c>
       <c r="AL89" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AM89" t="n">
         <v>0</v>
@@ -63591,7 +63591,7 @@
         <v>0</v>
       </c>
       <c r="AH106" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AI106" t="n">
         <v>0</v>
@@ -63727,7 +63727,7 @@
         <v>0</v>
       </c>
       <c r="AE107" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AF107" t="n">
         <v>0</v>
@@ -63863,7 +63863,7 @@
         <v>0</v>
       </c>
       <c r="AB108" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AC108" t="n">
         <v>0</v>
@@ -64008,7 +64008,7 @@
         <v>0</v>
       </c>
       <c r="AB109" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AC109" t="n">
         <v>0</v>
@@ -64653,10 +64653,10 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>11.7</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>16.3636</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -64665,13 +64665,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>6.9364</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -65390,16 +65390,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
         <v>25</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -66405,16 +66405,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
         <v>28</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -66550,16 +66550,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
         <v>25</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -66698,13 +66698,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -67571,10 +67571,10 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
         <v>15</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -67855,16 +67855,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
         <v>27</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -68308,7 +68308,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>9.343500000000001</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -68329,10 +68329,10 @@
         <v>0</v>
       </c>
       <c r="AE29" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AF29" t="n">
-        <v>0</v>
+        <v>0.3293</v>
       </c>
       <c r="AG29" t="n">
         <v>0</v>
@@ -68344,7 +68344,7 @@
         <v>0</v>
       </c>
       <c r="AJ29" t="n">
-        <v>0</v>
+        <v>0.3273</v>
       </c>
       <c r="AK29" t="n">
         <v>0</v>
@@ -68465,7 +68465,7 @@
         <v>0</v>
       </c>
       <c r="AB30" t="n">
-        <v>0</v>
+        <v>0.3973</v>
       </c>
       <c r="AC30" t="n">
         <v>0</v>
@@ -68474,7 +68474,7 @@
         <v>0</v>
       </c>
       <c r="AE30" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AF30" t="n">
         <v>0</v>
@@ -68486,7 +68486,7 @@
         <v>0</v>
       </c>
       <c r="AI30" t="n">
-        <v>0</v>
+        <v>0.324</v>
       </c>
       <c r="AJ30" t="n">
         <v>0</v>
@@ -68495,7 +68495,7 @@
         <v>0</v>
       </c>
       <c r="AL30" t="n">
-        <v>0</v>
+        <v>13.2787</v>
       </c>
       <c r="AM30" t="n">
         <v>0</v>
@@ -68613,13 +68613,13 @@
         <v>0</v>
       </c>
       <c r="AC31" t="n">
-        <v>0</v>
+        <v>1.0976</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
       </c>
       <c r="AE31" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AF31" t="n">
         <v>0</v>
@@ -68640,7 +68640,7 @@
         <v>0</v>
       </c>
       <c r="AL31" t="n">
-        <v>0</v>
+        <v>4.9024</v>
       </c>
       <c r="AM31" t="n">
         <v>0</v>
@@ -68764,25 +68764,25 @@
         <v>0</v>
       </c>
       <c r="AE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK32" t="n">
         <v>10</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>0</v>
       </c>
       <c r="AL32" t="n">
         <v>0</v>
@@ -68888,7 +68888,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -68909,7 +68909,7 @@
         <v>0</v>
       </c>
       <c r="AE33" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AF33" t="n">
         <v>0</v>
@@ -68918,7 +68918,7 @@
         <v>0</v>
       </c>
       <c r="AH33" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AI33" t="n">
         <v>0</v>
@@ -69054,25 +69054,25 @@
         <v>0</v>
       </c>
       <c r="AE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK34" t="n">
         <v>22</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>0</v>
       </c>
       <c r="AL34" t="n">
         <v>0</v>
@@ -71664,7 +71664,7 @@
         <v>0</v>
       </c>
       <c r="AE52" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AF52" t="n">
         <v>0</v>
@@ -71800,7 +71800,7 @@
         <v>0</v>
       </c>
       <c r="AB53" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AC53" t="n">
         <v>0</v>
@@ -71933,7 +71933,7 @@
         <v>0</v>
       </c>
       <c r="X54" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="Y54" t="n">
         <v>0</v>
@@ -72099,7 +72099,7 @@
         <v>0</v>
       </c>
       <c r="AE55" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AF55" t="n">
         <v>0</v>
@@ -75993,7 +75993,7 @@
         <v>0</v>
       </c>
       <c r="X82" t="n">
-        <v>0</v>
+        <v>5.0625</v>
       </c>
       <c r="Y82" t="n">
         <v>0</v>
@@ -76014,7 +76014,7 @@
         <v>0</v>
       </c>
       <c r="AE82" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AF82" t="n">
         <v>0</v>
@@ -76032,7 +76032,7 @@
         <v>0</v>
       </c>
       <c r="AK82" t="n">
-        <v>0</v>
+        <v>9.9375</v>
       </c>
       <c r="AL82" t="n">
         <v>0</v>
@@ -76718,7 +76718,7 @@
         <v>0</v>
       </c>
       <c r="X87" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Y87" t="n">
         <v>0</v>
@@ -76748,13 +76748,13 @@
         <v>0</v>
       </c>
       <c r="AH87" t="n">
-        <v>5</v>
+        <v>11.6727</v>
       </c>
       <c r="AI87" t="n">
         <v>0</v>
       </c>
       <c r="AJ87" t="n">
-        <v>0</v>
+        <v>0.3273</v>
       </c>
       <c r="AK87" t="n">
         <v>0</v>
@@ -77029,25 +77029,25 @@
         <v>0</v>
       </c>
       <c r="AE89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK89" t="n">
         <v>20</v>
-      </c>
-      <c r="AF89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK89" t="n">
-        <v>0</v>
       </c>
       <c r="AL89" t="n">
         <v>0</v>
@@ -79473,7 +79473,7 @@
         <v>0</v>
       </c>
       <c r="X106" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="Y106" t="n">
         <v>0</v>
@@ -79618,7 +79618,7 @@
         <v>0</v>
       </c>
       <c r="X107" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="Y107" t="n">
         <v>0</v>
@@ -79784,7 +79784,7 @@
         <v>0</v>
       </c>
       <c r="AE108" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AF108" t="n">
         <v>0</v>
@@ -79908,7 +79908,7 @@
         <v>0</v>
       </c>
       <c r="X109" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="Y109" t="n">
         <v>0</v>
@@ -80420,10 +80420,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>11.7</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>16.3636</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -80438,7 +80438,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>55</v>
+        <v>26.9364</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -81882,16 +81882,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
         <v>20</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -83187,16 +83187,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
         <v>15</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -83622,16 +83622,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
         <v>18</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -83912,16 +83912,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
         <v>20</v>
-      </c>
-      <c r="S27" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" t="n">
-        <v>0</v>
-      </c>
-      <c r="U27" t="n">
-        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -84075,7 +84075,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>7.0875</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -84105,7 +84105,7 @@
         <v>0</v>
       </c>
       <c r="AH28" t="n">
-        <v>7.9125</v>
+        <v>0</v>
       </c>
       <c r="AI28" t="n">
         <v>0</v>
@@ -84117,7 +84117,7 @@
         <v>0</v>
       </c>
       <c r="AL28" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AM28" t="n">
         <v>0</v>
@@ -84250,10 +84250,10 @@
         <v>0</v>
       </c>
       <c r="AH29" t="n">
-        <v>10</v>
+        <v>9.676</v>
       </c>
       <c r="AI29" t="n">
-        <v>0</v>
+        <v>0.324</v>
       </c>
       <c r="AJ29" t="n">
         <v>0</v>
@@ -84395,16 +84395,16 @@
         <v>0</v>
       </c>
       <c r="AH30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK30" t="n">
         <v>14</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>0</v>
       </c>
       <c r="AL30" t="n">
         <v>0</v>
@@ -84685,19 +84685,19 @@
         <v>0</v>
       </c>
       <c r="AH32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL32" t="n">
         <v>10</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>0</v>
       </c>
       <c r="AM32" t="n">
         <v>0</v>
@@ -84821,25 +84821,25 @@
         <v>0</v>
       </c>
       <c r="AE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK33" t="n">
         <v>12</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>0</v>
       </c>
       <c r="AL33" t="n">
         <v>0</v>
@@ -84945,7 +84945,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>7.0875</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -84975,13 +84975,13 @@
         <v>0</v>
       </c>
       <c r="AH34" t="n">
-        <v>22</v>
+        <v>14.5852</v>
       </c>
       <c r="AI34" t="n">
         <v>0</v>
       </c>
       <c r="AJ34" t="n">
-        <v>0</v>
+        <v>0.3273</v>
       </c>
       <c r="AK34" t="n">
         <v>0</v>
@@ -87567,7 +87567,7 @@
         <v>0</v>
       </c>
       <c r="AB52" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AC52" t="n">
         <v>0</v>
@@ -87721,7 +87721,7 @@
         <v>0</v>
       </c>
       <c r="AE53" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AF53" t="n">
         <v>0</v>
@@ -87875,7 +87875,7 @@
         <v>0</v>
       </c>
       <c r="AH54" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AI54" t="n">
         <v>0</v>
@@ -88020,7 +88020,7 @@
         <v>0</v>
       </c>
       <c r="AH55" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AI55" t="n">
         <v>0</v>
@@ -92080,16 +92080,16 @@
         <v>0</v>
       </c>
       <c r="AH83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK83" t="n">
         <v>10</v>
-      </c>
-      <c r="AI83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK83" t="n">
-        <v>0</v>
       </c>
       <c r="AL83" t="n">
         <v>0</v>
@@ -92195,7 +92195,7 @@
         <v>0</v>
       </c>
       <c r="X84" t="n">
-        <v>7.0875</v>
+        <v>0</v>
       </c>
       <c r="Y84" t="n">
         <v>0</v>
@@ -92225,13 +92225,13 @@
         <v>0</v>
       </c>
       <c r="AH84" t="n">
-        <v>6.9125</v>
+        <v>13.6727</v>
       </c>
       <c r="AI84" t="n">
         <v>0</v>
       </c>
       <c r="AJ84" t="n">
-        <v>0</v>
+        <v>0.3273</v>
       </c>
       <c r="AK84" t="n">
         <v>0</v>
@@ -92370,16 +92370,16 @@
         <v>0</v>
       </c>
       <c r="AH85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK85" t="n">
         <v>6</v>
-      </c>
-      <c r="AI85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK85" t="n">
-        <v>0</v>
       </c>
       <c r="AL85" t="n">
         <v>0</v>
@@ -92615,7 +92615,7 @@
         <v>0</v>
       </c>
       <c r="S87" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="T87" t="n">
         <v>0</v>
@@ -92651,7 +92651,7 @@
         <v>0</v>
       </c>
       <c r="AE87" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AF87" t="n">
         <v>0</v>
@@ -92805,19 +92805,19 @@
         <v>0</v>
       </c>
       <c r="AH88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL88" t="n">
         <v>22</v>
-      </c>
-      <c r="AI88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL88" t="n">
-        <v>0</v>
       </c>
       <c r="AM88" t="n">
         <v>0</v>
@@ -92920,7 +92920,7 @@
         <v>0</v>
       </c>
       <c r="X89" t="n">
-        <v>0</v>
+        <v>16.3467</v>
       </c>
       <c r="Y89" t="n">
         <v>0</v>
@@ -92944,16 +92944,16 @@
         <v>0</v>
       </c>
       <c r="AF89" t="n">
-        <v>0</v>
+        <v>0.3293</v>
       </c>
       <c r="AG89" t="n">
         <v>0</v>
       </c>
       <c r="AH89" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AI89" t="n">
-        <v>0</v>
+        <v>0.324</v>
       </c>
       <c r="AJ89" t="n">
         <v>0</v>
@@ -92962,7 +92962,7 @@
         <v>0</v>
       </c>
       <c r="AL89" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AM89" t="n">
         <v>0</v>
@@ -95415,7 +95415,7 @@
         <v>0</v>
       </c>
       <c r="AH106" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AI106" t="n">
         <v>0</v>
@@ -95560,7 +95560,7 @@
         <v>0</v>
       </c>
       <c r="AH107" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AI107" t="n">
         <v>0</v>
@@ -95687,7 +95687,7 @@
         <v>0</v>
       </c>
       <c r="AB108" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AC108" t="n">
         <v>0</v>
@@ -95832,7 +95832,7 @@
         <v>0</v>
       </c>
       <c r="AB109" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AC109" t="n">
         <v>0</v>
@@ -96477,10 +96477,10 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>11.7</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>16.3636</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -96489,13 +96489,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>6.9364</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -97214,16 +97214,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
         <v>25</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -98229,16 +98229,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
         <v>28</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -98374,16 +98374,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
         <v>25</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -98522,13 +98522,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -99395,10 +99395,10 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
         <v>15</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -99679,16 +99679,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
         <v>27</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -100008,25 +100008,25 @@
         <v>0</v>
       </c>
       <c r="AE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK28" t="n">
         <v>15</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>0</v>
       </c>
       <c r="AL28" t="n">
         <v>0</v>
@@ -100132,7 +100132,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -100153,7 +100153,7 @@
         <v>0</v>
       </c>
       <c r="AE29" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AF29" t="n">
         <v>0</v>
@@ -100712,7 +100712,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -100733,7 +100733,7 @@
         <v>0</v>
       </c>
       <c r="AE33" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AF33" t="n">
         <v>0</v>
@@ -100742,7 +100742,7 @@
         <v>0</v>
       </c>
       <c r="AH33" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AI33" t="n">
         <v>0</v>
@@ -101014,16 +101014,16 @@
         <v>0</v>
       </c>
       <c r="AB35" t="n">
-        <v>0</v>
+        <v>1.0622</v>
       </c>
       <c r="AC35" t="n">
-        <v>0</v>
+        <v>1.0976</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
       </c>
       <c r="AE35" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AF35" t="n">
         <v>0</v>
@@ -101038,10 +101038,10 @@
         <v>0</v>
       </c>
       <c r="AJ35" t="n">
-        <v>0</v>
+        <v>2.8403</v>
       </c>
       <c r="AK35" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AL35" t="n">
         <v>0</v>
@@ -103488,7 +103488,7 @@
         <v>0</v>
       </c>
       <c r="AE52" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AF52" t="n">
         <v>0</v>
@@ -103612,7 +103612,7 @@
         <v>0</v>
       </c>
       <c r="X53" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="Y53" t="n">
         <v>0</v>
@@ -103757,7 +103757,7 @@
         <v>0</v>
       </c>
       <c r="X54" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="Y54" t="n">
         <v>0</v>
@@ -103902,7 +103902,7 @@
         <v>0</v>
       </c>
       <c r="X55" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="Y55" t="n">
         <v>0</v>
@@ -108128,28 +108128,28 @@
         <v>0</v>
       </c>
       <c r="AE84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL84" t="n">
         <v>14</v>
-      </c>
-      <c r="AF84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL84" t="n">
-        <v>0</v>
       </c>
       <c r="AM84" t="n">
         <v>0</v>
@@ -108252,7 +108252,7 @@
         <v>0</v>
       </c>
       <c r="X85" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Y85" t="n">
         <v>0</v>
@@ -108273,7 +108273,7 @@
         <v>0</v>
       </c>
       <c r="AE85" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AF85" t="n">
         <v>0</v>
@@ -108418,25 +108418,25 @@
         <v>0</v>
       </c>
       <c r="AE86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK86" t="n">
         <v>10</v>
-      </c>
-      <c r="AF86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK86" t="n">
-        <v>0</v>
       </c>
       <c r="AL86" t="n">
         <v>0</v>
@@ -108542,7 +108542,7 @@
         <v>0</v>
       </c>
       <c r="X87" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Y87" t="n">
         <v>0</v>
@@ -108572,7 +108572,7 @@
         <v>0</v>
       </c>
       <c r="AH87" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AI87" t="n">
         <v>0</v>
@@ -108708,25 +108708,25 @@
         <v>0</v>
       </c>
       <c r="AE88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK88" t="n">
         <v>22</v>
-      </c>
-      <c r="AF88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK88" t="n">
-        <v>0</v>
       </c>
       <c r="AL88" t="n">
         <v>0</v>
@@ -111297,7 +111297,7 @@
         <v>0</v>
       </c>
       <c r="X106" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="Y106" t="n">
         <v>0</v>
@@ -111454,7 +111454,7 @@
         <v>0</v>
       </c>
       <c r="AB107" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AC107" t="n">
         <v>0</v>
@@ -111608,7 +111608,7 @@
         <v>0</v>
       </c>
       <c r="AE108" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AF108" t="n">
         <v>0</v>
@@ -111753,7 +111753,7 @@
         <v>0</v>
       </c>
       <c r="AE109" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AF109" t="n">
         <v>0</v>
